--- a/data/trans_bre/P38A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>6.167177368566845</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.482229579384121</v>
+        <v>2.482229579384099</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.01166604683908394</v>
@@ -627,7 +627,7 @@
         <v>0.07052657454792592</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02814638935597623</v>
+        <v>0.02814638935597597</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.17831949635826</v>
+        <v>-3.515880516906929</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.060275857606882</v>
+        <v>2.090581760360058</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.250476899927018</v>
+        <v>-1.644386124771892</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.03435043086283352</v>
+        <v>-0.03835033071663398</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02222274770708499</v>
+        <v>0.02277037655886894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01384089076517936</v>
+        <v>-0.01783282310420444</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.42199435484928</v>
+        <v>5.184558605330849</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.67785385204086</v>
+        <v>10.67237638870395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.732577082683849</v>
+        <v>6.562610070008961</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.06176701668989353</v>
+        <v>0.05859491826607361</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.126741051056615</v>
+        <v>0.1267433560354914</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07844615677685463</v>
+        <v>0.07740367448702855</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>2.064687009230726</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3788346854436742</v>
+        <v>0.3788346854436853</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.04028456548737175</v>
@@ -709,7 +709,7 @@
         <v>0.02343063697574104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004256166657517684</v>
+        <v>0.004256166657517809</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2828441368632715</v>
+        <v>-0.3999678617052311</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.24999343106482</v>
+        <v>-2.317187879102586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.886938044180065</v>
+        <v>-3.982047891186803</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.003064575061441853</v>
+        <v>-0.004345830881931367</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02484829040697591</v>
+        <v>-0.0247205445934123</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04255133094934032</v>
+        <v>-0.04358309835329924</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.421635006087469</v>
+        <v>7.478959381761853</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.66900640131793</v>
+        <v>6.756979801863144</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.842071149913526</v>
+        <v>4.497328224402459</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.08406420316111894</v>
+        <v>0.08543417432899626</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07777902818201432</v>
+        <v>0.07876465856513189</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05611812922776085</v>
+        <v>0.05208265547300895</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>4.30827897201752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.397875313948473</v>
+        <v>4.397875313948463</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.01535368094148058</v>
@@ -791,7 +791,7 @@
         <v>0.04890116008382802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04954171068694413</v>
+        <v>0.049541710686944</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.071083011544754</v>
+        <v>-3.197171201190877</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.39207874434034</v>
+        <v>-0.4535830534438905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3492264193528278</v>
+        <v>-0.07397886746757611</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.03433657760395133</v>
+        <v>-0.03469994467174299</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01513343280518644</v>
+        <v>-0.004804872973931693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.003841962275164441</v>
+        <v>-0.0004966151930521882</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.332988388993897</v>
+        <v>5.674918036971004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.765182992604133</v>
+        <v>9.007883773082934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.692480872016617</v>
+        <v>8.324790918254823</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.06055795929488825</v>
+        <v>0.06413786369638308</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1015063464528076</v>
+        <v>0.1040162084867251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1005026270300376</v>
+        <v>0.09707783386166814</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.325784267086135</v>
+        <v>-2.128966389234617</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.7110848047146727</v>
+        <v>-0.8266654082684304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.553169880859586</v>
+        <v>2.173503523416552</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02587135902065513</v>
+        <v>-0.02371914911995146</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.00792245793674904</v>
+        <v>-0.009388449884418164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02945743314406108</v>
+        <v>0.02471949624542972</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.960471801709729</v>
+        <v>3.992870888135847</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.261159060838598</v>
+        <v>5.358130282034773</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.805579806642449</v>
+        <v>8.888839774485946</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.04580824004355989</v>
+        <v>0.04669753563884856</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06346201360312409</v>
+        <v>0.06273986411166668</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1062087023047</v>
+        <v>0.1076690330386789</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>7.690018126101828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10.86387377645524</v>
+        <v>10.86387377645528</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.1158411823953524</v>
@@ -955,7 +955,7 @@
         <v>0.09344388611442023</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1371638802486184</v>
+        <v>0.137163880248619</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.73951865864067</v>
+        <v>6.276034613834685</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.313991940548963</v>
+        <v>4.060564330157698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.603742232826283</v>
+        <v>6.363756770621315</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.06702620091510786</v>
+        <v>0.07311982864267955</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05030946982817148</v>
+        <v>0.04798560594138535</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07911332160464285</v>
+        <v>0.07702488074060794</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.5667585875302</v>
+        <v>13.73330291998908</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.78118673246042</v>
+        <v>11.58311349673306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.52879865093579</v>
+        <v>15.34423570242344</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1695887150960546</v>
+        <v>0.1722227633223342</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1479197436548288</v>
+        <v>0.1464833153351825</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2051429596625173</v>
+        <v>0.203774664324523</v>
       </c>
     </row>
     <row r="19">
@@ -1037,7 +1037,7 @@
         <v>0.6542700874289452</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9596633488500504</v>
+        <v>0.9596633488500502</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>29.01250397108567</v>
+        <v>28.93056101423462</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>29.0797167749596</v>
+        <v>28.59998182375404</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28.96387790022948</v>
+        <v>28.90197736217473</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5090179260092368</v>
+        <v>0.5145114245848184</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4890616731760348</v>
+        <v>0.4844077686614925</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5344751014176909</v>
+        <v>0.5504286784836703</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>42.02100514007249</v>
+        <v>42.13197444512929</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>41.66790378824235</v>
+        <v>41.19767281887624</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50.0120044627393</v>
+        <v>50.02505230670955</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9427837420109878</v>
+        <v>0.9505336403856618</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8853859147006915</v>
+        <v>0.8700679868395189</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.493197370971403</v>
+        <v>1.542085167132358</v>
       </c>
     </row>
     <row r="22">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.692458012023569</v>
+        <v>2.716923036672171</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.643644200309587</v>
+        <v>4.404165939123385</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.794895672218507</v>
+        <v>3.943533804908836</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.03126499633767063</v>
+        <v>0.03157350261434078</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05492120393792322</v>
+        <v>0.05224788514254448</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0448645379192456</v>
+        <v>0.04755347861107094</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.895907486821842</v>
+        <v>5.907432411759056</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.916211408777881</v>
+        <v>7.721814379515142</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.786764403840378</v>
+        <v>7.802973069433826</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.06969375669043561</v>
+        <v>0.07018631261327363</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09598985620733827</v>
+        <v>0.09362063260807853</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09489763872231047</v>
+        <v>0.09631133048120825</v>
       </c>
     </row>
     <row r="25">
